--- a/data/mod1_marks.xlsx
+++ b/data/mod1_marks.xlsx
@@ -1195,8 +1195,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Данил Гончарук" id="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" userId="1130000065027765" providerId="Teamlab"/>
-  <person displayName="Никита Решетнев" id="{66939040-DD82-2470-F033-002F9793D741}" userId="307957583" providerId="Teamlab"/>
+  <person displayName="Данил Гончарук" id="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" userId="1130000065027765" providerId="Teamlab"/>
+  <person displayName="Никита Решетнев" id="{EFD3724C-A849-69A5-4050-0749921B1050}" userId="307957583" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1692,56 +1692,56 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A14" dT="2025-02-10T09:50:05.26Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{CA8A02E1-F91D-D0D2-3F0F-D3B7DA8D023D}" done="0">
+  <threadedComment ref="A14" dT="2025-02-10T09:50:05.26Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{CA8A02E1-F91D-D0D2-3F0F-D3B7DA8D023D}" done="0">
     <text xml:space="preserve">Неплохо.
 </text>
   </threadedComment>
-  <threadedComment ref="O14" dT="2025-02-10T09:48:21.84Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{5687E5D6-7901-32F8-D12C-4D633C6667EB}" done="0">
+  <threadedComment ref="O14" dT="2025-02-10T09:48:21.84Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{5687E5D6-7901-32F8-D12C-4D633C6667EB}" done="0">
     <text xml:space="preserve">Не совсем ясно какую нотацию вы используете при проектировании ER. 
 Почему при указании связи one-to-many стрелочку с one вы игнорируете?
 </text>
   </threadedComment>
-  <threadedComment ref="A137" dT="2025-01-27T15:23:02.83Z" personId="{66939040-DD82-2470-F033-002F9793D741}" id="{BAB2EA13-1738-E38C-0922-C1F7E8E20F70}" done="0">
+  <threadedComment ref="A137" dT="2025-01-27T15:23:02.83Z" personId="{EFD3724C-A849-69A5-4050-0749921B1050}" id="{BAB2EA13-1738-E38C-0922-C1F7E8E20F70}" done="0">
     <text xml:space="preserve">Фидбек:
 1. Задания лучше всего делать в ipynb (Jupiter Notebook)
 2. Не следует наименовать переменные транслитом. Лучше их назвать на английском
 </text>
   </threadedComment>
-  <threadedComment ref="A140" dT="2025-01-27T15:25:12.83Z" personId="{66939040-DD82-2470-F033-002F9793D741}" id="{A04D1F33-8C32-3E16-B185-622739E8437F}" done="0">
+  <threadedComment ref="A140" dT="2025-01-27T15:25:12.83Z" personId="{EFD3724C-A849-69A5-4050-0749921B1050}" id="{A04D1F33-8C32-3E16-B185-622739E8437F}" done="0">
     <text xml:space="preserve">Фидбек:
 Лучше всего хранить код в Jupiter Notebook или python файлах
 </text>
   </threadedComment>
-  <threadedComment ref="A24" dT="2025-02-10T09:46:26.20Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{ADF3FA31-6FD8-C4FA-CDE0-5A193846FA03}" done="0">
+  <threadedComment ref="A24" dT="2025-02-10T09:46:26.20Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{ADF3FA31-6FD8-C4FA-CDE0-5A193846FA03}" done="0">
     <text xml:space="preserve">Часто забывает про type hints. 
 Код - неплохо.
 </text>
   </threadedComment>
-  <threadedComment ref="A32" dT="2025-02-10T09:43:54.48Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{42C7188D-2CB9-BC32-159B-A9C56BD6463C}" done="0">
+  <threadedComment ref="A32" dT="2025-02-10T09:43:54.48Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{42C7188D-2CB9-BC32-159B-A9C56BD6463C}" done="0">
     <text xml:space="preserve">Отличная работа студента по всем заданиям!
 </text>
   </threadedComment>
-  <threadedComment ref="A35" dT="2025-02-18T13:46:16.66Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{BB47281F-A1D6-C913-9088-8920B7041778}" done="0">
+  <threadedComment ref="A35" dT="2025-02-18T13:46:16.66Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{BB47281F-A1D6-C913-9088-8920B7041778}" done="0">
     <text xml:space="preserve">Лучшая работа из всех, что проверял.
 </text>
   </threadedComment>
-  <threadedComment ref="A37" dT="2025-02-10T09:51:49.43Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{9DEB21CF-A1E6-8FF1-D9A4-04E10895706B}" done="0">
+  <threadedComment ref="A37" dT="2025-02-10T09:51:49.43Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{9DEB21CF-A1E6-8FF1-D9A4-04E10895706B}" done="0">
     <text xml:space="preserve">Отличная работа!
 </text>
   </threadedComment>
-  <threadedComment ref="A41" dT="2025-02-10T09:44:49.87Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{988190EF-6932-D983-336A-5E3D4AFBD807}" done="0">
+  <threadedComment ref="A41" dT="2025-02-10T09:44:49.87Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{988190EF-6932-D983-336A-5E3D4AFBD807}" done="0">
     <text xml:space="preserve">Отличная работа студента по всем заданиям!
 </text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-02-10T09:58:41.58Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{AFD28E85-90EA-EC68-8C2B-D3898440EBDA}" done="0">
+  <threadedComment ref="A43" dT="2025-02-10T09:58:41.58Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{AFD28E85-90EA-EC68-8C2B-D3898440EBDA}" done="0">
     <text xml:space="preserve">Превосходная работа!
 </text>
   </threadedComment>
-  <threadedComment ref="P49" dT="2025-02-10T09:56:24.30Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{2297718B-E450-7C34-260A-6085F7EC66A6}" done="0">
+  <threadedComment ref="P49" dT="2025-02-10T09:56:24.30Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{2297718B-E450-7C34-260A-6085F7EC66A6}" done="0">
     <text xml:space="preserve">Вложенные запросы и их использование очень спорное решение при выполнении задания.
 </text>
   </threadedComment>
-  <threadedComment ref="C51" dT="2025-02-18T13:49:26.62Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{9416ABB8-524C-A7A1-569B-00DF7EBDEB9D}" done="0">
+  <threadedComment ref="C51" dT="2025-02-18T13:49:26.62Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{9416ABB8-524C-A7A1-569B-00DF7EBDEB9D}" done="0">
     <text xml:space="preserve">UML - никуда не годиться. 
 У вас логика сбора данных бьётся в пустой или несуществующий или не предусмотренный бизнесом endpoint
 Не соблюдена ниодна UML-нотация. 
@@ -1751,31 +1751,31 @@
 UML не соответствует бизнес-процессу.
 </text>
   </threadedComment>
-  <threadedComment ref="C52" dT="2025-02-18T14:03:58.32Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{8CA485DE-93D1-1DE1-95C3-6736FE4D36CE}" done="0">
+  <threadedComment ref="C52" dT="2025-02-18T14:03:58.32Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{8CA485DE-93D1-1DE1-95C3-6736FE4D36CE}" done="0">
     <text xml:space="preserve">Отличная UML. (Даже не смотря на несоблюдение нотаций)
 </text>
   </threadedComment>
-  <threadedComment ref="P53" dT="2025-02-10T09:53:55.36Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{65474278-AF76-DD83-38B6-4748665C6FBD}" done="0">
+  <threadedComment ref="P53" dT="2025-02-10T09:53:55.36Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{65474278-AF76-DD83-38B6-4748665C6FBD}" done="0">
     <text xml:space="preserve">Вложенные запросы и их использование очень спорное решение при выполнении задания.
 </text>
   </threadedComment>
-  <threadedComment ref="A7" dT="2025-02-10T09:44:35.97Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{96C61C47-D07D-F862-85E3-94441DE0369F}" done="0">
+  <threadedComment ref="A7" dT="2025-02-10T09:44:35.97Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{96C61C47-D07D-F862-85E3-94441DE0369F}" done="0">
     <text xml:space="preserve">все задания, за исключением ряда недочётов - неплохо!
 </text>
   </threadedComment>
-  <threadedComment ref="K7" dT="2025-02-10T09:35:27.64Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{63B17F83-0A06-AEDD-6C3D-21E1776774A1}" done="0">
+  <threadedComment ref="K7" dT="2025-02-10T09:35:27.64Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{63B17F83-0A06-AEDD-6C3D-21E1776774A1}" done="0">
     <text xml:space="preserve">Не увидел использования функций.
 </text>
   </threadedComment>
-  <threadedComment ref="P7" dT="2025-02-10T09:39:34.36Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{47FC369C-F267-2492-108E-1CD77064DAD2}" done="0">
+  <threadedComment ref="P7" dT="2025-02-10T09:39:34.36Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{47FC369C-F267-2492-108E-1CD77064DAD2}" done="0">
     <text xml:space="preserve">Отличная работа. Однако при использовании сторонних библиотек, стоит фризить requirements.txt
 </text>
   </threadedComment>
-  <threadedComment ref="R7" dT="2025-02-10T09:34:11.33Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{20A1EE4C-C62D-734D-A2EB-2855F5C0678A}" done="0">
+  <threadedComment ref="R7" dT="2025-02-10T09:34:11.33Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{20A1EE4C-C62D-734D-A2EB-2855F5C0678A}" done="0">
     <text xml:space="preserve">При выводе датасета часто мелькает, например, что ID записаны в эспоненциальной нотации, что может быть некорректно и неудобно. Такое стоит сразу исправлять.
 </text>
   </threadedComment>
-  <threadedComment ref="I7" dT="2025-02-10T09:43:12.01Z" personId="{A3A242F4-A169-7D46-AFCB-8E40975B9901}" id="{EAAD2622-792D-4458-A1AF-BC062216216E}" done="0">
+  <threadedComment ref="I7" dT="2025-02-10T09:43:12.01Z" personId="{003FA87A-20B8-7187-5CE5-F620CC1E9D0F}" id="{EAAD2622-792D-4458-A1AF-BC062216216E}" done="0">
     <text xml:space="preserve">Использовать type hints стоит не выборочно, а по одному из следующих путей:
 1. Либо не использовать вовсе
 2. Либо покрывать хинтами весь код (например в вашей функции bin_search) вы указали arr: list, но на второй аргумент и на out функции не укзаали, стоило дописать, что bin_search(arr: list[int], key: int) -&gt; tuple(bool, int)
@@ -19519,7 +19519,9 @@
       <c r="T163" s="8">
         <v>1</v>
       </c>
-      <c r="U163" s="8"/>
+      <c r="U163" s="8">
+        <v>1</v>
+      </c>
       <c r="V163" s="12"/>
       <c r="W163" s="8"/>
       <c r="X163" s="8"/>
@@ -19535,7 +19537,7 @@
       <c r="AH163" s="8"/>
       <c r="AI163" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>Незачёт</v>
+        <v>Зачёт</v>
       </c>
       <c r="AJ163" s="8" t="s">
         <v>130</v>
